--- a/results/canada_production_wmd.xlsx
+++ b/results/canada_production_wmd.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regional_minerals_sustainability/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDAA534B0D6B2C4CEB05A9C47E7B54BC55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17418B0D-68CE-454F-A1F1-213B7F79BEFC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>Commodity</t>
   </si>
@@ -25,6 +31,9 @@
     <t>World Share (%)</t>
   </si>
   <si>
+    <t>Unit</t>
+  </si>
+  <si>
     <t>Aluminium</t>
   </si>
   <si>
@@ -218,13 +227,25 @@
   </si>
   <si>
     <t>Zircon</t>
+  </si>
+  <si>
+    <t>metr. t</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Mio m3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,13 +308,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -331,7 +360,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -365,6 +394,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -399,9 +429,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -574,14 +605,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:D66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,32 +630,41 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>3033966</v>
       </c>
       <c r="C2">
-        <v>4.408192891199321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4.4081928911993211</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00240873890474642</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.4087389047464198E-3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -624,10 +672,13 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -635,21 +686,27 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>50000</v>
       </c>
       <c r="C6">
-        <v>0.6039856773252422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.60398567732524222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -657,10 +714,13 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -668,10 +728,13 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -679,10 +742,13 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -690,10 +756,13 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -701,21 +770,27 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>1800</v>
       </c>
       <c r="C12">
-        <v>7.825066295700561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>7.8250662957005606</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -723,10 +798,13 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>3063</v>
@@ -734,10 +812,13 @@
       <c r="C14">
         <v>1.844847316749985</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>26461240</v>
@@ -745,32 +826,41 @@
       <c r="C15">
         <v>2.539749819529765</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>510782</v>
       </c>
       <c r="C16">
-        <v>2.298189324741366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>2.2981893247413661</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>17728144</v>
       </c>
       <c r="C17">
-        <v>22.32575786693221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>22.325757866932211</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -778,10 +868,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -789,10 +882,13 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -800,21 +896,27 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>20000</v>
       </c>
       <c r="C21">
-        <v>0.216534182031842</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.21653418203184199</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -822,10 +924,13 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -833,54 +938,69 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>205831</v>
       </c>
       <c r="C24">
-        <v>6.193863401646152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>6.1938634016461522</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>13000</v>
       </c>
       <c r="C25">
-        <v>0.7525386602264794</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.75253866022647942</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>3174070</v>
       </c>
       <c r="C26">
-        <v>1.793377429217833</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>1.7933774292178331</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>39</v>
       </c>
       <c r="C27">
-        <v>3.869047619047619</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>3.8690476190476191</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>42073900</v>
@@ -888,10 +1008,13 @@
       <c r="C28">
         <v>2.718035435339718</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -899,32 +1022,41 @@
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>8247</v>
       </c>
       <c r="C30">
-        <v>0.1756942447192663</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.17569424471926631</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>6427680</v>
       </c>
       <c r="C31">
-        <v>0.8972312057060245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.89723120570602455</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -932,10 +1064,13 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>230000</v>
@@ -943,10 +1078,13 @@
       <c r="C33">
         <v>0.8615610384717346</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -954,10 +1092,13 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -965,21 +1106,27 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>1146</v>
       </c>
       <c r="C36">
-        <v>0.4317034581481202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.43170345814812022</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>186121</v>
@@ -987,43 +1134,55 @@
       <c r="C37">
         <v>4.475801176610914</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>143266</v>
       </c>
       <c r="C38">
-        <v>4.409682550626428</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>4.4096825506264281</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>6800</v>
       </c>
       <c r="C39">
-        <v>5.75252307353924</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>5.7525230735392396</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>179386500</v>
       </c>
       <c r="C40">
-        <v>90.8808353154851</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>90.880835315485101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1031,21 +1190,27 @@
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>16099</v>
       </c>
       <c r="C42">
-        <v>7.969328554739323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>7.9693285547393229</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1053,21 +1218,27 @@
       <c r="C43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>271233300</v>
       </c>
       <c r="C44">
-        <v>6.122784600944838</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>6.1227846009448381</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1075,32 +1246,41 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>5490</v>
       </c>
       <c r="C46">
-        <v>2.999639387614604</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>2.9996393876146041</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>15116101</v>
       </c>
       <c r="C47">
-        <v>36.02715727846437</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>36.027157278464372</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1108,10 +1288,13 @@
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1119,43 +1302,55 @@
       <c r="C49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50">
         <v>500</v>
       </c>
       <c r="C50">
-        <v>2.199639259161497</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>2.1996392591614971</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>14640779</v>
       </c>
       <c r="C51">
-        <v>5.384907849451607</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>5.3849078494516069</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>110</v>
       </c>
       <c r="C52">
-        <v>2.945113788487283</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>2.9451137884872831</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>334480</v>
@@ -1163,10 +1358,13 @@
       <c r="C53">
         <v>1.258184424227528</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>12201040</v>
@@ -1174,32 +1372,41 @@
       <c r="C54">
         <v>0.1842920640954695</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>4898600</v>
       </c>
       <c r="C55">
-        <v>5.918407337810224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>5.9184073378102244</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>200000</v>
       </c>
       <c r="C56">
-        <v>2.563910270832252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>2.5639102708322521</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1207,21 +1414,27 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>24</v>
       </c>
       <c r="C58">
-        <v>3.524229074889868</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>3.5242290748898681</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1229,21 +1442,27 @@
       <c r="C59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>540000</v>
       </c>
       <c r="C60">
-        <v>6.03824625175864</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>6.0382462517586397</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1251,21 +1470,27 @@
       <c r="C61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>6168</v>
       </c>
       <c r="C62">
-        <v>11.01979561209176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>11.019795612091761</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1273,10 +1498,13 @@
       <c r="C63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1284,27 +1512,36 @@
       <c r="C64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>208147</v>
       </c>
       <c r="C65">
-        <v>1.630980727586954</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>1.6309807275869539</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
